--- a/e4/GPI2015_G02_E4_RISK.xlsx
+++ b/e4/GPI2015_G02_E4_RISK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>Lista de Gr.02 / DM4iRetail Gr#2 / Risco</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>Consequence</t>
+  </si>
+  <si>
+    <t>Delay in equipment acquisition</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a contract with the company that supplies equipment making them pay for everyday delay </t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1151,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1585,35 @@
         <v>61</v>
       </c>
     </row>
+    <row r="16" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
